--- a/tables/Player.xlsx
+++ b/tables/Player.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>序号</t>
   </si>
@@ -118,22 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowledge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1|1|2|4|6|7|8|8|8|9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +135,51 @@
   </si>
   <si>
     <t>路人丙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originSpeedLevel</t>
+  </si>
+  <si>
+    <t>初始速度等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始力量等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originStrengthLevel</t>
+  </si>
+  <si>
+    <t>初始精神等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originSpiritLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始知识等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originKnowledgeLevel</t>
+  </si>
+  <si>
+    <t>speedValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strengthValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiritValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,22 +533,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="8" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="11" width="17.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,19 +559,31 @@
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -553,19 +594,31 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -575,20 +628,32 @@
       <c r="C3" s="1">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
+      <c r="F3" s="2">
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -598,20 +663,32 @@
       <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
+      <c r="F4" s="2">
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -621,20 +698,32 @@
       <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
+      <c r="F5" s="2">
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -644,96 +733,144 @@
       <c r="C6" s="1">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
+      <c r="F6" s="2">
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
+      <c r="F7" s="2">
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
+      <c r="F8" s="2">
+        <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
+      <c r="F9" s="2">
+        <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD3 A10:XFD1048576 B5:XFD9 A5 A7 A9">
+  <conditionalFormatting sqref="A1:XFD3 A10:XFD1048576 B5:C9 A5 A7 A9 E5:E9 D4:D9 G5:G9 F4:F9 I5:I9 H4:H9 K5:XFD9 J4:J9">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD4 A6 A8">
+  <conditionalFormatting sqref="A4:C4 A6 A8 E4 G4 I4 K4:XFD4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
